--- a/Documentação/FlixStream -  Estimativa PCU.xlsx
+++ b/Documentação/FlixStream -  Estimativa PCU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\José Elias Fernandes\OneDrive\Documentos\Faculdade\2016-1\Prática em Fábrica de Software\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\FlixStream\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1578,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1739,11 +1739,11 @@
         <v>5</v>
       </c>
       <c r="G19" s="24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H19" s="8">
         <f>D19*G19</f>
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1788,11 +1788,11 @@
       </c>
       <c r="G22" s="14">
         <f xml:space="preserve"> SUM(G19:G21)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H22" s="21">
         <f xml:space="preserve"> SUM(H19:H21)</f>
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="G24" s="22">
         <f>H22 + H14</f>
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2321,7 +2321,7 @@
       </c>
       <c r="E66" s="27">
         <f>G61 *G45 *G24</f>
-        <v>42.088499999999996</v>
+        <v>46.565999999999995</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
@@ -2344,7 +2344,7 @@
       <c r="C70" s="7"/>
       <c r="E70" s="27">
         <f>E66 *E68</f>
-        <v>1178.4779999999998</v>
+        <v>1303.848</v>
       </c>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
@@ -2366,7 +2366,7 @@
       <c r="C74" s="7"/>
       <c r="E74" s="27">
         <f>IF(E72 &lt;&gt; 0, E70/E72, 0)</f>
-        <v>294.61949999999996</v>
+        <v>325.96199999999999</v>
       </c>
       <c r="F74" t="s">
         <v>55</v>
@@ -2379,7 +2379,7 @@
       <c r="C76" s="7"/>
       <c r="E76" s="27">
         <f>E74/160</f>
-        <v>1.8413718749999997</v>
+        <v>2.0372624999999998</v>
       </c>
       <c r="F76" t="s">
         <v>89</v>
